--- a/payroll_system/reports/exports/payroll_report_2026_01.xlsx
+++ b/payroll_system/reports/exports/payroll_report_2026_01.xlsx
@@ -456,17 +456,17 @@
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="9" max="9"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="11" max="11"/>
     <col width="4" customWidth="1" min="12" max="12"/>
     <col width="15" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
     <col width="10" customWidth="1" min="18" max="18"/>
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1363.636363636364</v>
+        <v>1818.181818181818</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>545.4545454545455</v>
+        <v>727.2727272727274</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>272.7272727272727</v>
+        <v>363.6363636363637</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>136.3636363636364</v>
+        <v>181.8181818181818</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>0</v>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>2318.181818181818</v>
+        <v>3090.909090909091</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>163.6363636363637</v>
+        <v>218.1818181818182</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>17.38636363636364</v>
+        <v>23.18181818181818</v>
       </c>
       <c r="L2" s="3" t="n">
         <v>0</v>
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>181.0227272727273</v>
+        <v>241.3636363636364</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>2137.159090909091</v>
+        <v>2849.545454545455</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>22</v>
